--- a/pred_ohlcv/54_21/2019-10-31 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 ICX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>182066.5985631796</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>212932.3695631796</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>375826.4704741788</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>375826.4704741788</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>364578.7682741788</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>361436.3835741788</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>307023.7874741788</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>297934.0794741788</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>297964.0794741788</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>295951.4183741788</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>269196.0340741788</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>273377.4452741788</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>274495.7235741788</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 ICX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>182066.5985631796</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>212932.3695631796</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -808,7 +808,7 @@
         <v>460196.0396145297</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>443382.4445741788</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>448452.8539741788</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>418815.2058741788</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>411947.2581741788</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>387884.4280741788</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>387884.4280741788</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>387884.4280741788</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>385275.5001741788</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>375826.4704741788</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>375826.4704741788</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>375826.4704741788</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>364578.7682741788</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>307023.7874741788</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>297934.0794741788</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>297964.0794741788</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>295951.4183741788</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>269196.0340741788</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>273377.4452741788</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>274495.7235741788</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
